--- a/GE3_TestCases_2023_v1.0.xlsx
+++ b/GE3_TestCases_2023_v1.0.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="107">
   <si>
     <t>#</t>
   </si>
@@ -257,6 +257,9 @@
     <t>CE_NV_22</t>
   </si>
   <si>
+    <t>"1000"</t>
+  </si>
+  <si>
     <t>"10000"</t>
   </si>
   <si>
@@ -272,7 +275,7 @@
     <t>CE_NV_24</t>
   </si>
   <si>
-    <t>ZIPCODE NOT A NUMBER</t>
+    <t>ZIPCODE NOT A STRING</t>
   </si>
   <si>
     <t>OUTPUT</t>
@@ -2189,8 +2192,8 @@
       <c r="F26" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G26" s="10">
-        <v>1000.0</v>
+      <c r="G26" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="H26" s="5">
         <v>8.42169142322E12</v>
@@ -2205,10 +2208,10 @@
         <v>21</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N26" s="3"/>
       <c r="O26" s="7"/>
@@ -2245,10 +2248,10 @@
         <v>64</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G27" s="10">
-        <v>52007.0</v>
+        <v>82</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="H27" s="5">
         <v>8.42169142322E12</v>
@@ -2263,10 +2266,10 @@
         <v>21</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N27" s="5"/>
       <c r="O27" s="13"/>
@@ -2303,10 +2306,10 @@
         <v>64</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H28" s="5">
         <v>8.42169142322E12</v>
@@ -2320,11 +2323,11 @@
       <c r="K28" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="6" t="s">
-        <v>27</v>
+      <c r="L28" s="12">
+        <v>28005.0</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="7"/>
@@ -2517,18 +2520,18 @@
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -2557,18 +2560,18 @@
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -3874,13 +3877,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>5</v>
@@ -3889,13 +3892,13 @@
         <v>6</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>13</v>
@@ -3927,25 +3930,25 @@
         <v>5.0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J2" s="3"/>
     </row>
@@ -5441,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>5</v>
@@ -5450,10 +5453,10 @@
         <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>13</v>
@@ -5464,11 +5467,11 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
